--- a/PERT.xlsx
+++ b/PERT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PERT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Inicio</t>
   </si>
@@ -66,6 +66,39 @@
   </si>
   <si>
     <t>Desordenado</t>
+  </si>
+  <si>
+    <t>a).-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b).- </t>
+  </si>
+  <si>
+    <t>d.p</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>(14,2.5166)</t>
+  </si>
+  <si>
+    <t>c).-</t>
+  </si>
+  <si>
+    <t>p(x&lt;=14)=</t>
+  </si>
+  <si>
+    <t>DISTR.NOM.N</t>
+  </si>
+  <si>
+    <t>INV.NORM</t>
+  </si>
+  <si>
+    <t>PARA DISTRIBUCIÓN NORMAL</t>
+  </si>
+  <si>
+    <t>PARA INVERSA DE DISTRIBUACIÓN NORMAL</t>
   </si>
 </sst>
 </file>
@@ -845,7 +878,7 @@
   <dimension ref="D3:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,6 +1079,9 @@
       </c>
     </row>
     <row r="16" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
       <c r="G16" s="2" t="s">
         <v>10</v>
       </c>
@@ -1054,8 +1090,28 @@
         <v>7</v>
       </c>
       <c r="J16" s="2"/>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
       <c r="G18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1065,7 +1121,7 @@
         <v>6.3400000000000007</v>
       </c>
     </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
       <c r="G20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1075,12 +1131,26 @@
         <v>2.5179356624028344</v>
       </c>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>13</v>
       </c>
